--- a/AAII_Financials/Quarterly/TCRI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCRI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>TCRI</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,59 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -741,8 +745,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,8 +777,11 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,8 +964,9 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -959,16 +986,19 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -988,16 +1018,19 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1042,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1038,8 +1072,11 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1067,8 +1104,11 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,8 +1136,11 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1117,16 +1160,19 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,8 +1232,11 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1204,16 +1256,19 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1233,16 +1288,19 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1424,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1386,8 +1456,11 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1407,16 +1480,19 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,8 +1520,11 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1465,50 +1544,56 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,8 +1619,9 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1562,8 +1649,11 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,8 +1681,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1620,8 +1713,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,8 +1745,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1672,14 +1771,17 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1701,14 +1803,17 @@
       <c r="I46" s="3">
         <v>0</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
+      <c r="J46" s="3">
+        <v>0</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,8 +1841,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1765,8 +1873,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,8 +2033,11 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1933,14 +2059,17 @@
       <c r="I54" s="3">
         <v>0</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
+      <c r="J54" s="3">
+        <v>0</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2095,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1976,11 +2107,11 @@
       <c r="E57" s="3">
         <v>0</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -1988,14 +2119,17 @@
       <c r="I57" s="3">
         <v>0</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,8 +2157,11 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2044,16 +2181,19 @@
         <v>200</v>
       </c>
       <c r="I59" s="3">
+        <v>200</v>
+      </c>
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2073,16 +2213,19 @@
         <v>200</v>
       </c>
       <c r="I60" s="3">
+        <v>200</v>
+      </c>
+      <c r="J60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,8 +2253,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,8 +2381,11 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2247,16 +2405,19 @@
         <v>200</v>
       </c>
       <c r="I66" s="3">
+        <v>200</v>
+      </c>
+      <c r="J66" s="3">
         <v>100</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,8 +2555,11 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2396,7 +2570,7 @@
         <v>-2300</v>
       </c>
       <c r="F72" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="G72" s="3">
         <v>-2200</v>
@@ -2405,16 +2579,19 @@
         <v>-2200</v>
       </c>
       <c r="I72" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J72" s="3">
         <v>-2100</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,8 +2683,11 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2521,16 +2707,19 @@
         <v>-200</v>
       </c>
       <c r="I76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J76" s="3">
         <v>-100</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,42 +2747,48 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2613,16 +2808,19 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,8 +3022,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2837,8 +3054,11 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3100,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3164,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2966,8 +3196,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,8 +3338,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3124,8 +3370,11 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,8 +3402,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3180,6 +3432,9 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCRI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCRI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>TCRI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,59 +665,62 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -748,8 +751,11 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -780,8 +786,11 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +821,11 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +871,11 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +906,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,8 +941,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +976,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,8 +990,9 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -989,16 +1015,19 @@
         <v>0</v>
       </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1021,16 +1050,19 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1075,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1075,8 +1108,11 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1107,8 +1143,11 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,8 +1178,11 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1163,16 +1205,19 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1248,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,8 +1283,11 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1259,16 +1310,19 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1291,16 +1345,19 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1423,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1493,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1459,8 +1528,11 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1483,16 +1555,19 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,8 +1598,11 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1547,53 +1625,59 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,8 +1705,9 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1652,8 +1738,11 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,8 +1773,11 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1716,8 +1808,11 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,8 +1843,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1774,14 +1872,17 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1806,14 +1907,17 @@
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>4</v>
+      <c r="K46" s="3">
+        <v>0</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,8 +1948,11 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1876,8 +1983,11 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2018,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,8 +2088,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2004,8 +2123,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,8 +2158,11 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2062,14 +2187,17 @@
       <c r="J54" s="3">
         <v>0</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>4</v>
+      <c r="K54" s="3">
+        <v>0</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,13 +2225,14 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>0</v>
+      <c r="D57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -2110,11 +2240,11 @@
       <c r="F57" s="3">
         <v>0</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -2122,14 +2252,17 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
+      <c r="K57" s="3">
+        <v>0</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2160,13 +2293,16 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
         <v>200</v>
@@ -2184,21 +2320,24 @@
         <v>200</v>
       </c>
       <c r="J59" s="3">
+        <v>200</v>
+      </c>
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E60" s="3">
         <v>200</v>
@@ -2216,16 +2355,19 @@
         <v>200</v>
       </c>
       <c r="J60" s="3">
+        <v>200</v>
+      </c>
+      <c r="K60" s="3">
         <v>100</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,8 +2398,11 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2288,8 +2433,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,13 +2538,16 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E66" s="3">
         <v>200</v>
@@ -2408,16 +2565,19 @@
         <v>200</v>
       </c>
       <c r="J66" s="3">
+        <v>200</v>
+      </c>
+      <c r="K66" s="3">
         <v>100</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,8 +2728,11 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2573,7 +2746,7 @@
         <v>-2300</v>
       </c>
       <c r="G72" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="H72" s="3">
         <v>-2200</v>
@@ -2582,16 +2755,19 @@
         <v>-2200</v>
       </c>
       <c r="J72" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2100</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,13 +2868,16 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E76" s="3">
         <v>-200</v>
@@ -2710,16 +2895,19 @@
         <v>-200</v>
       </c>
       <c r="J76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K76" s="3">
         <v>-100</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,45 +2938,51 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2811,16 +3005,19 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3030,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2865,8 +3063,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,8 +3238,11 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3057,8 +3273,11 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3290,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3103,8 +3323,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,8 +3393,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3199,8 +3428,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3445,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3478,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,8 +3583,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3373,8 +3618,11 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,8 +3653,11 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3435,6 +3686,9 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCRI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCRI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>TCRI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,62 +665,74 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -754,8 +766,17 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -789,8 +810,17 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -824,8 +854,17 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +878,11 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,8 +916,17 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,28 +960,37 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+        <v>-300</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -944,8 +1004,17 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1048,17 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,16 +1069,19 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -1018,16 +1099,25 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1035,7 +1125,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1053,16 +1143,25 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,8 +1175,11 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1111,8 +1213,17 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1146,8 +1257,17 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1181,16 +1301,25 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -1208,16 +1337,25 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1251,8 +1389,17 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,16 +1433,25 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1313,24 +1469,33 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -1348,16 +1513,25 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1565,17 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1609,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1653,17 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,8 +1697,17 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1531,16 +1741,25 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -1558,16 +1777,25 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,16 +1829,25 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -1628,56 +1865,74 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1946,11 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,8 +1964,11 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1741,8 +2002,17 @@
       <c r="M41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,8 +2046,17 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1811,8 +2090,17 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1846,8 +2134,17 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1875,14 +2172,23 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1910,14 +2216,23 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1951,8 +2266,17 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1986,8 +2310,17 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2021,8 +2354,17 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2398,17 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,8 +2442,17 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2126,8 +2486,17 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,8 +2530,17 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2190,14 +2568,23 @@
       <c r="K54" s="3">
         <v>0</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2598,11 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,13 +2616,16 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
+      <c r="D57" s="3">
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -2240,11 +2633,11 @@
       <c r="F57" s="3">
         <v>0</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -2252,17 +2645,26 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2296,22 +2698,31 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
-      </c>
-      <c r="E59" s="3">
-        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>200</v>
       </c>
       <c r="G59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
@@ -2323,30 +2734,39 @@
         <v>200</v>
       </c>
       <c r="K59" s="3">
+        <v>200</v>
+      </c>
+      <c r="L59" s="3">
+        <v>200</v>
+      </c>
+      <c r="M59" s="3">
+        <v>200</v>
+      </c>
+      <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
         <v>300</v>
       </c>
-      <c r="E60" s="3">
-        <v>200</v>
-      </c>
       <c r="F60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H60" s="3">
         <v>200</v>
@@ -2358,16 +2778,25 @@
         <v>200</v>
       </c>
       <c r="K60" s="3">
+        <v>200</v>
+      </c>
+      <c r="L60" s="3">
+        <v>200</v>
+      </c>
+      <c r="M60" s="3">
+        <v>200</v>
+      </c>
+      <c r="N60" s="3">
         <v>100</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2401,8 +2830,17 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2436,8 +2874,17 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2918,17 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2962,17 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,22 +3006,31 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3">
         <v>300</v>
       </c>
-      <c r="E66" s="3">
-        <v>200</v>
-      </c>
       <c r="F66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H66" s="3">
         <v>200</v>
@@ -2568,16 +3042,25 @@
         <v>200</v>
       </c>
       <c r="K66" s="3">
+        <v>200</v>
+      </c>
+      <c r="L66" s="3">
+        <v>200</v>
+      </c>
+      <c r="M66" s="3">
+        <v>200</v>
+      </c>
+      <c r="N66" s="3">
         <v>100</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +3074,11 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +3112,17 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +3156,17 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +3200,17 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,43 +3244,61 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2300</v>
+        <v>-2100</v>
       </c>
       <c r="E72" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="F72" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="G72" s="3">
         <v>-2300</v>
       </c>
       <c r="H72" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-2200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-2200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-2100</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +3332,17 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3376,17 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,22 +3420,31 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
         <v>-300</v>
       </c>
-      <c r="E76" s="3">
-        <v>-200</v>
-      </c>
       <c r="F76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="G76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H76" s="3">
         <v>-200</v>
@@ -2898,16 +3456,25 @@
         <v>-200</v>
       </c>
       <c r="K76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N76" s="3">
         <v>-100</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,56 +3508,74 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -3008,16 +3593,25 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,8 +3625,11 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3066,8 +3663,17 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3707,17 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3751,17 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3795,17 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3839,17 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,8 +3883,17 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3276,8 +3927,17 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,8 +3951,11 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3326,8 +3989,17 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +4033,17 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,8 +4077,17 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3431,8 +4121,17 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +4145,11 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +4183,17 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +4227,17 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +4271,17 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,8 +4315,17 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3621,8 +4359,17 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3656,8 +4403,17 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3689,6 +4445,15 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCRI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCRI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>TCRI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,81 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +782,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,34 +1002,40 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>300</v>
+      </c>
+      <c r="F14" s="3">
         <v>-300</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,23 +1123,25 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
         <v>-300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
@@ -1108,16 +1161,22 @@
         <v>0</v>
       </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,14 +1184,14 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
@@ -1152,16 +1211,22 @@
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1289,14 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,8 +1339,14 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,23 +1389,29 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
@@ -1346,16 +1431,22 @@
         <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,23 +1539,29 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
@@ -1478,31 +1581,37 @@
         <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
@@ -1522,16 +1631,22 @@
         <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,23 +1889,29 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
@@ -1786,16 +1931,22 @@
         <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,23 +1989,29 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
@@ -1874,65 +2031,77 @@
         <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2138,10 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2011,8 +2184,14 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2234,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2284,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2334,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2181,14 +2378,20 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2225,14 +2428,20 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2484,14 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,8 +2534,14 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2784,14 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2577,14 +2828,20 @@
       <c r="N54" s="3">
         <v>0</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2878,60 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
         <v>0</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
+      <c r="E57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
+      <c r="G57" s="3">
+        <v>0</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
+      <c r="K57" s="3">
+        <v>0</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,19 +2974,25 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G59" s="3">
         <v>300</v>
@@ -2728,7 +3001,7 @@
         <v>200</v>
       </c>
       <c r="I59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
@@ -2743,36 +3016,42 @@
         <v>200</v>
       </c>
       <c r="N59" s="3">
+        <v>200</v>
+      </c>
+      <c r="O59" s="3">
+        <v>200</v>
+      </c>
+      <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F60" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G60" s="3">
         <v>300</v>
       </c>
       <c r="H60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J60" s="3">
         <v>200</v>
@@ -2787,16 +3066,22 @@
         <v>200</v>
       </c>
       <c r="N60" s="3">
+        <v>200</v>
+      </c>
+      <c r="O60" s="3">
+        <v>200</v>
+      </c>
+      <c r="P60" s="3">
         <v>100</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +3124,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,28 +3324,34 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E66" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F66" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G66" s="3">
         <v>300</v>
       </c>
       <c r="H66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J66" s="3">
         <v>200</v>
@@ -3051,16 +3366,22 @@
         <v>200</v>
       </c>
       <c r="N66" s="3">
+        <v>200</v>
+      </c>
+      <c r="O66" s="3">
+        <v>200</v>
+      </c>
+      <c r="P66" s="3">
         <v>100</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,25 +3594,31 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2100</v>
+        <v>-2500</v>
       </c>
       <c r="E72" s="3">
         <v>-2400</v>
       </c>
       <c r="F72" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G72" s="3">
         <v>-2400</v>
       </c>
-      <c r="G72" s="3">
-        <v>-2300</v>
-      </c>
       <c r="H72" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="I72" s="3">
         <v>-2300</v>
@@ -3280,25 +3627,31 @@
         <v>-2300</v>
       </c>
       <c r="K72" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="L72" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="M72" s="3">
         <v>-2200</v>
       </c>
       <c r="N72" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="O72" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="P72" s="3">
         <v>-2100</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,28 +3794,34 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E76" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="F76" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="G76" s="3">
         <v>-300</v>
       </c>
       <c r="H76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="I76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J76" s="3">
         <v>-200</v>
@@ -3465,16 +3836,22 @@
         <v>-200</v>
       </c>
       <c r="N76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P76" s="3">
         <v>-100</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,72 +3894,84 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
@@ -3602,16 +3991,22 @@
         <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4319,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3936,8 +4369,14 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4589,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4368,8 +4859,14 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4909,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4957,12 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCRI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCRI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>TCRI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,37 +1025,40 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-300</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,26 +1151,27 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
@@ -1167,16 +1194,19 @@
         <v>0</v>
       </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,17 +1214,17 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
@@ -1217,16 +1247,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,26 +1435,29 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
@@ -1437,16 +1480,19 @@
         <v>0</v>
       </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,26 +1594,29 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
@@ -1587,34 +1639,37 @@
         <v>0</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
@@ -1637,16 +1692,19 @@
         <v>0</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1895,26 +1965,29 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
@@ -1937,16 +2010,19 @@
         <v>0</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,26 +2071,29 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
@@ -2037,71 +2116,77 @@
         <v>0</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2190,8 +2277,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2384,14 +2483,17 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2434,14 +2536,17 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>4</v>
+      <c r="Q46" s="3">
+        <v>0</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,8 +2913,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2834,14 +2960,17 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>4</v>
+      <c r="Q54" s="3">
+        <v>0</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,19 +3010,20 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
         <v>0</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -2900,11 +3031,11 @@
       <c r="H57" s="3">
         <v>0</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -2912,11 +3043,11 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0</v>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -2924,14 +3055,17 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
+      <c r="Q57" s="3">
+        <v>0</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,8 +3114,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2989,22 +3126,22 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
       </c>
       <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
-      </c>
-      <c r="J59" s="3">
-        <v>200</v>
       </c>
       <c r="K59" s="3">
         <v>200</v>
@@ -3022,16 +3159,19 @@
         <v>200</v>
       </c>
       <c r="P59" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3039,13 +3179,13 @@
         <v>100</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
       </c>
       <c r="G60" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
@@ -3054,7 +3194,7 @@
         <v>300</v>
       </c>
       <c r="J60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
@@ -3072,16 +3212,19 @@
         <v>200</v>
       </c>
       <c r="P60" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q60" s="3">
         <v>100</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,8 +3485,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3339,13 +3497,13 @@
         <v>100</v>
       </c>
       <c r="E66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
       </c>
       <c r="G66" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H66" s="3">
         <v>300</v>
@@ -3354,7 +3512,7 @@
         <v>300</v>
       </c>
       <c r="J66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K66" s="3">
         <v>200</v>
@@ -3372,16 +3530,19 @@
         <v>200</v>
       </c>
       <c r="P66" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q66" s="3">
         <v>100</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,8 +3771,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3609,19 +3783,19 @@
         <v>-2500</v>
       </c>
       <c r="E72" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-2400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2100</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-2400</v>
       </c>
       <c r="H72" s="3">
         <v>-2400</v>
       </c>
       <c r="I72" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="J72" s="3">
         <v>-2300</v>
@@ -3633,7 +3807,7 @@
         <v>-2300</v>
       </c>
       <c r="M72" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="N72" s="3">
         <v>-2200</v>
@@ -3642,16 +3816,19 @@
         <v>-2200</v>
       </c>
       <c r="P72" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,8 +3983,11 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3809,13 +3995,13 @@
         <v>-100</v>
       </c>
       <c r="E76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F76" s="3">
         <v>0</v>
       </c>
       <c r="G76" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H76" s="3">
         <v>-300</v>
@@ -3824,7 +4010,7 @@
         <v>-300</v>
       </c>
       <c r="J76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="K76" s="3">
         <v>-200</v>
@@ -3842,16 +4028,19 @@
         <v>-200</v>
       </c>
       <c r="P76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-100</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,81 +4089,87 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
@@ -3997,16 +4192,19 @@
         <v>0</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,13 +5058,16 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCRI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCRI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>TCRI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1039,29 +1059,29 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-300</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,29 +1178,30 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
@@ -1197,16 +1224,19 @@
         <v>0</v>
       </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,20 +1244,20 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
@@ -1250,16 +1280,19 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,29 +1478,32 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
@@ -1483,16 +1526,19 @@
         <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,29 +1646,32 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
@@ -1642,37 +1694,40 @@
         <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
@@ -1695,16 +1750,19 @@
         <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,29 +2038,32 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
@@ -2013,16 +2086,19 @@
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,29 +2150,32 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
@@ -2119,74 +2198,80 @@
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2486,14 +2585,17 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2539,14 +2641,17 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>4</v>
+      <c r="R46" s="3">
+        <v>0</v>
       </c>
       <c r="S46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2963,14 +3089,17 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>4</v>
+      <c r="R54" s="3">
+        <v>0</v>
       </c>
       <c r="S54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3022,11 +3153,11 @@
       <c r="E57" s="3">
         <v>0</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -3034,11 +3165,11 @@
       <c r="I57" s="3">
         <v>0</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -3046,11 +3177,11 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O57" s="3">
-        <v>0</v>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -3058,14 +3189,17 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
+      <c r="R57" s="3">
+        <v>0</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3129,22 +3266,22 @@
         <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
       <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
-      </c>
-      <c r="K59" s="3">
-        <v>200</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
@@ -3162,16 +3299,19 @@
         <v>200</v>
       </c>
       <c r="Q59" s="3">
+        <v>200</v>
+      </c>
+      <c r="R59" s="3">
         <v>100</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3182,13 +3322,13 @@
         <v>100</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G60" s="3">
         <v>0</v>
       </c>
       <c r="H60" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I60" s="3">
         <v>300</v>
@@ -3197,7 +3337,7 @@
         <v>300</v>
       </c>
       <c r="K60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L60" s="3">
         <v>200</v>
@@ -3215,16 +3355,19 @@
         <v>200</v>
       </c>
       <c r="Q60" s="3">
+        <v>200</v>
+      </c>
+      <c r="R60" s="3">
         <v>100</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,8 +3643,11 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3500,13 +3658,13 @@
         <v>100</v>
       </c>
       <c r="F66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G66" s="3">
         <v>0</v>
       </c>
       <c r="H66" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I66" s="3">
         <v>300</v>
@@ -3515,7 +3673,7 @@
         <v>300</v>
       </c>
       <c r="K66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L66" s="3">
         <v>200</v>
@@ -3533,16 +3691,19 @@
         <v>200</v>
       </c>
       <c r="Q66" s="3">
+        <v>200</v>
+      </c>
+      <c r="R66" s="3">
         <v>100</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,8 +3945,11 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3786,19 +3960,19 @@
         <v>-2500</v>
       </c>
       <c r="F72" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G72" s="3">
         <v>-2400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2100</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-2400</v>
       </c>
       <c r="I72" s="3">
         <v>-2400</v>
       </c>
       <c r="J72" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="K72" s="3">
         <v>-2300</v>
@@ -3810,7 +3984,7 @@
         <v>-2300</v>
       </c>
       <c r="N72" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="O72" s="3">
         <v>-2200</v>
@@ -3819,16 +3993,19 @@
         <v>-2200</v>
       </c>
       <c r="Q72" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="R72" s="3">
         <v>-2100</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,8 +4169,11 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3998,13 +4184,13 @@
         <v>-100</v>
       </c>
       <c r="F76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G76" s="3">
         <v>0</v>
       </c>
       <c r="H76" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="I76" s="3">
         <v>-300</v>
@@ -4013,7 +4199,7 @@
         <v>-300</v>
       </c>
       <c r="K76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L76" s="3">
         <v>-200</v>
@@ -4031,16 +4217,19 @@
         <v>-200</v>
       </c>
       <c r="Q76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R76" s="3">
         <v>-100</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,87 +4281,93 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
@@ -4195,16 +4390,19 @@
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,13 +5002,16 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,16 +5304,19 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCRI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCRI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
   <si>
     <t>TCRI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,92 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +805,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1062,29 +1081,29 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-300</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1204,9 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1188,23 +1214,23 @@
         <v>0</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>-300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
@@ -1227,16 +1253,19 @@
         <v>0</v>
       </c>
       <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,23 +1273,23 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
@@ -1283,16 +1312,19 @@
         <v>0</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,8 +1402,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,8 +1461,11 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,8 +1520,11 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1490,23 +1532,23 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
@@ -1529,16 +1571,19 @@
         <v>0</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1697,11 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1658,23 +1709,23 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
@@ -1697,16 +1748,19 @@
         <v>0</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1714,23 +1768,23 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
@@ -1753,16 +1807,19 @@
         <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,8 +2110,11 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2050,23 +2122,23 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
@@ -2089,16 +2161,19 @@
         <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2228,11 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2162,23 +2240,23 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
@@ -2201,77 +2279,83 @@
         <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2399,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2370,8 +2456,11 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2515,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2574,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2633,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2588,14 +2686,17 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
+      <c r="S45" s="3">
+        <v>0</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2644,14 +2745,17 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>4</v>
+      <c r="S46" s="3">
+        <v>0</v>
       </c>
       <c r="T46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2810,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2762,8 +2869,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3164,11 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3092,14 +3217,17 @@
       <c r="R54" s="3">
         <v>0</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>4</v>
+      <c r="S54" s="3">
+        <v>0</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,13 +3271,14 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>0</v>
+      <c r="D57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -3156,11 +3286,11 @@
       <c r="F57" s="3">
         <v>0</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -3168,11 +3298,11 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -3180,11 +3310,11 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P57" s="3">
-        <v>0</v>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -3192,14 +3322,17 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
+      <c r="S57" s="3">
+        <v>0</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,8 +3387,11 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3269,22 +3405,22 @@
         <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
       <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
-      </c>
-      <c r="L59" s="3">
-        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
@@ -3302,16 +3438,19 @@
         <v>200</v>
       </c>
       <c r="R59" s="3">
+        <v>200</v>
+      </c>
+      <c r="S59" s="3">
         <v>100</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3325,13 +3464,13 @@
         <v>100</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H60" s="3">
         <v>0</v>
       </c>
       <c r="I60" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J60" s="3">
         <v>300</v>
@@ -3340,7 +3479,7 @@
         <v>300</v>
       </c>
       <c r="L60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M60" s="3">
         <v>200</v>
@@ -3358,16 +3497,19 @@
         <v>200</v>
       </c>
       <c r="R60" s="3">
+        <v>200</v>
+      </c>
+      <c r="S60" s="3">
         <v>100</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3564,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3800,11 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3661,13 +3818,13 @@
         <v>100</v>
       </c>
       <c r="G66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H66" s="3">
         <v>0</v>
       </c>
       <c r="I66" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J66" s="3">
         <v>300</v>
@@ -3676,7 +3833,7 @@
         <v>300</v>
       </c>
       <c r="L66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M66" s="3">
         <v>200</v>
@@ -3694,16 +3851,19 @@
         <v>200</v>
       </c>
       <c r="R66" s="3">
+        <v>200</v>
+      </c>
+      <c r="S66" s="3">
         <v>100</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,8 +4118,11 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3963,19 +4136,19 @@
         <v>-2500</v>
       </c>
       <c r="G72" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="H72" s="3">
         <v>-2400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2100</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-2400</v>
       </c>
       <c r="J72" s="3">
         <v>-2400</v>
       </c>
       <c r="K72" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="L72" s="3">
         <v>-2300</v>
@@ -3987,7 +4160,7 @@
         <v>-2300</v>
       </c>
       <c r="O72" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="P72" s="3">
         <v>-2200</v>
@@ -3996,16 +4169,19 @@
         <v>-2200</v>
       </c>
       <c r="R72" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="S72" s="3">
         <v>-2100</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,8 +4354,11 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4187,13 +4372,13 @@
         <v>-100</v>
       </c>
       <c r="G76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H76" s="3">
         <v>0</v>
       </c>
       <c r="I76" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="J76" s="3">
         <v>-300</v>
@@ -4202,7 +4387,7 @@
         <v>-300</v>
       </c>
       <c r="L76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M76" s="3">
         <v>-200</v>
@@ -4220,16 +4405,19 @@
         <v>-200</v>
       </c>
       <c r="R76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S76" s="3">
         <v>-100</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4472,75 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4354,23 +4548,23 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
@@ -4393,16 +4587,19 @@
         <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4815,8 +5031,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,16 +5231,19 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5318,8 +5563,8 @@
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -5363,8 +5608,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5667,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5724,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCRI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCRI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
   <si>
     <t>TCRI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -808,8 +812,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1084,29 +1104,29 @@
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-300</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,8 +1231,9 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1217,23 +1244,23 @@
         <v>0</v>
       </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
@@ -1256,16 +1283,19 @@
         <v>0</v>
       </c>
       <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
         <v>100</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
       <c r="U17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1276,23 +1306,23 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
@@ -1315,16 +1345,19 @@
         <v>0</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1405,8 +1439,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1464,8 +1501,11 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,8 +1563,11 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1535,23 +1578,23 @@
         <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
@@ -1574,16 +1617,19 @@
         <v>0</v>
       </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,8 +1749,11 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1712,23 +1764,23 @@
         <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
@@ -1751,16 +1803,19 @@
         <v>0</v>
       </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1771,23 +1826,23 @@
         <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
@@ -1810,16 +1865,19 @@
         <v>0</v>
       </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2113,8 +2183,11 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2125,23 +2198,23 @@
         <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
@@ -2164,16 +2237,19 @@
         <v>0</v>
       </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,8 +2307,11 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2243,23 +2322,23 @@
         <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
@@ -2282,80 +2361,86 @@
         <v>0</v>
       </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,8 +2486,9 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2459,8 +2546,11 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2689,14 +2788,17 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
+      <c r="T45" s="3">
+        <v>0</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2748,14 +2850,17 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>4</v>
+      <c r="T46" s="3">
+        <v>0</v>
       </c>
       <c r="U46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,8 +2918,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,8 +3290,11 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3220,14 +3346,17 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>4</v>
+      <c r="T54" s="3">
+        <v>0</v>
       </c>
       <c r="U54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,16 +3402,17 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0</v>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -3289,11 +3420,11 @@
       <c r="G57" s="3">
         <v>0</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -3301,11 +3432,11 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57" s="3">
-        <v>0</v>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -3313,11 +3444,11 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>0</v>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -3325,14 +3456,17 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
+      <c r="T57" s="3">
+        <v>0</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3390,8 +3524,11 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3408,22 +3545,22 @@
         <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
       <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
-      </c>
-      <c r="M59" s="3">
-        <v>200</v>
       </c>
       <c r="N59" s="3">
         <v>200</v>
@@ -3441,21 +3578,24 @@
         <v>200</v>
       </c>
       <c r="S59" s="3">
+        <v>200</v>
+      </c>
+      <c r="T59" s="3">
         <v>100</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E60" s="3">
         <v>100</v>
@@ -3467,13 +3607,13 @@
         <v>100</v>
       </c>
       <c r="H60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I60" s="3">
         <v>0</v>
       </c>
       <c r="J60" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K60" s="3">
         <v>300</v>
@@ -3482,7 +3622,7 @@
         <v>300</v>
       </c>
       <c r="M60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
@@ -3500,16 +3640,19 @@
         <v>200</v>
       </c>
       <c r="S60" s="3">
+        <v>200</v>
+      </c>
+      <c r="T60" s="3">
         <v>100</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3567,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,13 +3958,16 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E66" s="3">
         <v>100</v>
@@ -3821,13 +3979,13 @@
         <v>100</v>
       </c>
       <c r="H66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I66" s="3">
         <v>0</v>
       </c>
       <c r="J66" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K66" s="3">
         <v>300</v>
@@ -3836,7 +3994,7 @@
         <v>300</v>
       </c>
       <c r="M66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N66" s="3">
         <v>200</v>
@@ -3854,16 +4012,19 @@
         <v>200</v>
       </c>
       <c r="S66" s="3">
+        <v>200</v>
+      </c>
+      <c r="T66" s="3">
         <v>100</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,13 +4292,16 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="E72" s="3">
         <v>-2500</v>
@@ -4139,19 +4313,19 @@
         <v>-2500</v>
       </c>
       <c r="H72" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="I72" s="3">
         <v>-2400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2100</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-2400</v>
       </c>
       <c r="K72" s="3">
         <v>-2400</v>
       </c>
       <c r="L72" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="M72" s="3">
         <v>-2300</v>
@@ -4163,7 +4337,7 @@
         <v>-2300</v>
       </c>
       <c r="P72" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="Q72" s="3">
         <v>-2200</v>
@@ -4172,16 +4346,19 @@
         <v>-2200</v>
       </c>
       <c r="S72" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="T72" s="3">
         <v>-2100</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,13 +4540,16 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E76" s="3">
         <v>-100</v>
@@ -4375,13 +4561,13 @@
         <v>-100</v>
       </c>
       <c r="H76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I76" s="3">
         <v>0</v>
       </c>
       <c r="J76" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="K76" s="3">
         <v>-300</v>
@@ -4390,7 +4576,7 @@
         <v>-300</v>
       </c>
       <c r="M76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="N76" s="3">
         <v>-200</v>
@@ -4408,16 +4594,19 @@
         <v>-200</v>
       </c>
       <c r="S76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T76" s="3">
         <v>-100</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,72 +4664,78 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4551,23 +4746,23 @@
         <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
@@ -4590,16 +4785,19 @@
         <v>0</v>
       </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5034,8 +5251,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,19 +5461,22 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5566,8 +5812,8 @@
       <c r="F100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -5611,8 +5857,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,8 +5919,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5727,6 +5979,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCRI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCRI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
   <si>
     <t>TCRI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1107,29 +1127,29 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-300</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1258,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1247,23 +1274,23 @@
         <v>0</v>
       </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
@@ -1286,16 +1313,19 @@
         <v>0</v>
       </c>
       <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
         <v>100</v>
       </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
       <c r="V17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1309,23 +1339,23 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
@@ -1348,16 +1378,19 @@
         <v>0</v>
       </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1442,16 +1476,19 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>0</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
@@ -1504,8 +1541,11 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,8 +1606,11 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1581,23 +1624,23 @@
         <v>0</v>
       </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
@@ -1620,16 +1663,19 @@
         <v>0</v>
       </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,8 +1801,11 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1767,23 +1819,23 @@
         <v>0</v>
       </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
@@ -1806,16 +1858,19 @@
         <v>0</v>
       </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1829,23 +1884,23 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
@@ -1868,16 +1923,19 @@
         <v>0</v>
       </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2186,8 +2256,11 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2201,23 +2274,23 @@
         <v>0</v>
       </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
@@ -2240,16 +2313,19 @@
         <v>0</v>
       </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,8 +2386,11 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2325,23 +2404,23 @@
         <v>0</v>
       </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
@@ -2364,83 +2443,89 @@
         <v>0</v>
       </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,8 +2573,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2549,8 +2636,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2791,14 +2890,17 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
+      <c r="U45" s="3">
+        <v>0</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2853,14 +2955,17 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>4</v>
+      <c r="U46" s="3">
+        <v>0</v>
       </c>
       <c r="V46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,8 +3416,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3349,14 +3475,17 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>4</v>
+      <c r="U54" s="3">
+        <v>0</v>
       </c>
       <c r="V54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,19 +3533,20 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
         <v>0</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -3423,11 +3554,11 @@
       <c r="H57" s="3">
         <v>0</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -3435,11 +3566,11 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0</v>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -3447,11 +3578,11 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R57" s="3">
-        <v>0</v>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
@@ -3459,14 +3590,17 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>4</v>
+      <c r="U57" s="3">
+        <v>0</v>
       </c>
       <c r="V57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,13 +3661,16 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
@@ -3548,22 +3685,22 @@
         <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
       <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
-      </c>
-      <c r="N59" s="3">
-        <v>200</v>
       </c>
       <c r="O59" s="3">
         <v>200</v>
@@ -3581,16 +3718,19 @@
         <v>200</v>
       </c>
       <c r="T59" s="3">
+        <v>200</v>
+      </c>
+      <c r="U59" s="3">
         <v>100</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3598,7 +3738,7 @@
         <v>200</v>
       </c>
       <c r="E60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F60" s="3">
         <v>100</v>
@@ -3610,13 +3750,13 @@
         <v>100</v>
       </c>
       <c r="I60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J60" s="3">
         <v>0</v>
       </c>
       <c r="K60" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L60" s="3">
         <v>300</v>
@@ -3625,7 +3765,7 @@
         <v>300</v>
       </c>
       <c r="N60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O60" s="3">
         <v>200</v>
@@ -3643,16 +3783,19 @@
         <v>200</v>
       </c>
       <c r="T60" s="3">
+        <v>200</v>
+      </c>
+      <c r="U60" s="3">
         <v>100</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,8 +4116,11 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3970,7 +4128,7 @@
         <v>200</v>
       </c>
       <c r="E66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F66" s="3">
         <v>100</v>
@@ -3982,13 +4140,13 @@
         <v>100</v>
       </c>
       <c r="I66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J66" s="3">
         <v>0</v>
       </c>
       <c r="K66" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L66" s="3">
         <v>300</v>
@@ -3997,7 +4155,7 @@
         <v>300</v>
       </c>
       <c r="N66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O66" s="3">
         <v>200</v>
@@ -4015,16 +4173,19 @@
         <v>200</v>
       </c>
       <c r="T66" s="3">
+        <v>200</v>
+      </c>
+      <c r="U66" s="3">
         <v>100</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,8 +4466,11 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4304,7 +4478,7 @@
         <v>-2600</v>
       </c>
       <c r="E72" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="F72" s="3">
         <v>-2500</v>
@@ -4316,19 +4490,19 @@
         <v>-2500</v>
       </c>
       <c r="I72" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J72" s="3">
         <v>-2400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2100</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-2400</v>
       </c>
       <c r="L72" s="3">
         <v>-2400</v>
       </c>
       <c r="M72" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="N72" s="3">
         <v>-2300</v>
@@ -4340,7 +4514,7 @@
         <v>-2300</v>
       </c>
       <c r="Q72" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="R72" s="3">
         <v>-2200</v>
@@ -4349,16 +4523,19 @@
         <v>-2200</v>
       </c>
       <c r="T72" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="U72" s="3">
         <v>-2100</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,8 +4726,11 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4552,7 +4738,7 @@
         <v>-200</v>
       </c>
       <c r="E76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F76" s="3">
         <v>-100</v>
@@ -4564,13 +4750,13 @@
         <v>-100</v>
       </c>
       <c r="I76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J76" s="3">
         <v>0</v>
       </c>
       <c r="K76" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="L76" s="3">
         <v>-300</v>
@@ -4579,7 +4765,7 @@
         <v>-300</v>
       </c>
       <c r="N76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O76" s="3">
         <v>-200</v>
@@ -4597,16 +4783,19 @@
         <v>-200</v>
       </c>
       <c r="T76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U76" s="3">
         <v>-100</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,75 +4856,81 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4749,23 +4944,23 @@
         <v>0</v>
       </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
@@ -4788,16 +4983,19 @@
         <v>0</v>
       </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,22 +5691,25 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5815,8 +6061,8 @@
       <c r="G100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>
